--- a/Guide.xlsx
+++ b/Guide.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamel\Desktop\Clients\Ongoing\CSSC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3732C0-CA2C-40D6-8649-5E60CC1188AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Dashboard</t>
   </si>
@@ -64,9 +71,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>PositionID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -79,12 +83,6 @@
     <t>CandidateID</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -100,9 +98,6 @@
     <t>Voters</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
@@ -140,19 +135,19 @@
   </si>
   <si>
     <t>ManagePartyList</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>photo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,152 +162,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,19 +172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.25"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.15"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,210 +196,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.15"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.5"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -556,251 +221,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,61 +262,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1151,29 +530,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="15.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="14.7142857142857" customWidth="1"/>
-    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1445,12 +824,8 @@
       <c r="J9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1481,9 +856,7 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1493,12 +866,8 @@
       <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1525,26 +894,20 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1567,21 +930,17 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1608,16 +967,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1642,20 +1001,22 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1666,7 +1027,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1687,10 +1048,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1719,10 +1084,14 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1735,7 +1104,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1753,7 +1122,9 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1767,7 +1138,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1942,13 +1313,13 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1978,10 +1349,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2012,10 +1383,10 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2046,10 +1417,10 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2081,7 +1452,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2113,7 +1484,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2500,6 +1871,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>